--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\newone\bacon.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D2D164-9AC1-4843-B60C-21016FD9A5AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F2C963-20CF-4783-A1E4-490C05F6508B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9825" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1055">
   <si>
     <t>$id</t>
   </si>
@@ -285,97 +285,64 @@
     <t>你收藏着病友借给你的那本小说，常常夜间溜出走廊，对着想象中她所在的方向发呆。</t>
   </si>
   <si>
-    <t>「将这该死的轮回切断给你看。」</t>
-  </si>
-  <si>
     <t>EVT[10003,10004,10005,10006,10007]</t>
   </si>
   <si>
     <t>EVT?[10045]</t>
   </si>
   <si>
-    <t>无能</t>
-  </si>
-  <si>
     <t>(TLT?[1004])&amp;(EVT?[10045])</t>
   </si>
   <si>
     <t>EVT?[20046]</t>
   </si>
   <si>
-    <t>懦弱</t>
-  </si>
-  <si>
     <t>(TLT?[1005])&amp;(EVT?[10045])</t>
   </si>
   <si>
     <t>EVT?[20047]</t>
   </si>
   <si>
-    <t>脆弱</t>
-  </si>
-  <si>
     <t>(TLT?[1006])&amp;(EVT?[10045])</t>
   </si>
   <si>
     <t>EVT?[20048,10045]</t>
   </si>
   <si>
-    <t>独活</t>
-  </si>
-  <si>
     <t>(TLT?[1007])&amp;(EVT?[10045])</t>
   </si>
   <si>
     <t>EVT?[20049]</t>
   </si>
   <si>
-    <t>cp</t>
-  </si>
-  <si>
     <t>(TLT?[1008])&amp;(EVT?[10045])</t>
   </si>
   <si>
     <t>EVT?[20050]</t>
   </si>
   <si>
-    <t>团簇</t>
-  </si>
-  <si>
     <t>(TLT?[1009])&amp;(EVT?[10045])</t>
   </si>
   <si>
     <t>EVT?[20051]</t>
   </si>
   <si>
-    <t>茶会</t>
-  </si>
-  <si>
     <t>(TLT?[1010])&amp;(EVT?[10045])</t>
   </si>
   <si>
     <t>EVT?[20052]</t>
   </si>
   <si>
-    <t>田村！</t>
-  </si>
-  <si>
     <t>(TLT?[1011])&amp;(EVT?[10045])</t>
   </si>
   <si>
     <t>EVT?[20053]</t>
   </si>
   <si>
-    <t>平凡</t>
-  </si>
-  <si>
     <t>(TLT![1004,1005,1006,1007,1008,1009,1010,1011,1012])&amp;(EVT?[10045])</t>
   </si>
   <si>
     <t>(TLT?[1004,1005,1006,1007,1008,1009,1010,1011,1012])|(EVT?[20054])</t>
-  </si>
-  <si>
-    <t>爱</t>
   </si>
   <si>
     <t>(TLT?[1012])&amp;(EVT?[10045])</t>
@@ -3291,6 +3258,14 @@
   </si>
   <si>
     <t>CHR&lt;5000:10000</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运的齿轮正在悄然转动…</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3647,7 +3622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3824,6 +3799,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4108,9 +4089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.375" defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
@@ -4259,9 +4240,6 @@
       <c r="B6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="3">
-        <v>14</v>
-      </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
@@ -4582,34 +4560,34 @@
       <c r="A29" s="3">
         <v>10045</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="60" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>20046</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="61" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="J30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4617,16 +4595,16 @@
         <v>20047</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>73</v>
+        <v>1054</v>
       </c>
       <c r="J31" s="3">
         <v>-1</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4634,16 +4612,16 @@
         <v>20048</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>76</v>
+        <v>1054</v>
       </c>
       <c r="J32" s="3">
         <v>-1</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4651,16 +4629,16 @@
         <v>20049</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>79</v>
+        <v>1054</v>
       </c>
       <c r="J33" s="3">
         <v>-1</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4668,16 +4646,16 @@
         <v>20050</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>82</v>
+        <v>1054</v>
       </c>
       <c r="J34" s="3">
         <v>-1</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4685,16 +4663,16 @@
         <v>20051</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>85</v>
+        <v>1054</v>
       </c>
       <c r="J35" s="3">
         <v>-1</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4702,16 +4680,16 @@
         <v>20052</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>88</v>
+        <v>1054</v>
       </c>
       <c r="J36" s="3">
         <v>-1</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4719,16 +4697,16 @@
         <v>20053</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>1054</v>
       </c>
       <c r="J37" s="3">
         <v>-1</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4736,16 +4714,16 @@
         <v>20054</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>94</v>
+        <v>1054</v>
       </c>
       <c r="J38" s="3">
         <v>-1</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4753,16 +4731,16 @@
         <v>20055</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>97</v>
+        <v>1054</v>
       </c>
       <c r="J39" s="3">
         <v>-1</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4770,10 +4748,10 @@
         <v>10022</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O40" s="59" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4781,16 +4759,16 @@
         <v>10027</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="J41" s="3">
         <v>-1</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4798,19 +4776,19 @@
         <v>10028</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J42" s="3">
         <v>-1</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4818,19 +4796,19 @@
         <v>10029</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J43" s="3">
         <v>-1</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4838,19 +4816,19 @@
         <v>10030</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J44" s="3">
         <v>-1</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4858,16 +4836,16 @@
         <v>10031</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J45" s="3">
         <v>-1</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4875,19 +4853,19 @@
         <v>10032</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="J46" s="3">
         <v>-1</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4895,19 +4873,19 @@
         <v>10033</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J47" s="3">
         <v>-1</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4915,16 +4893,16 @@
         <v>10034</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J48" s="3">
         <v>-1</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4932,16 +4910,16 @@
         <v>10035</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J49" s="3">
         <v>-1</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4949,16 +4927,16 @@
         <v>10036</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J50" s="3">
         <v>-1</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,16 +4944,16 @@
         <v>10037</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J51" s="3">
         <v>-1</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4983,16 +4961,16 @@
         <v>10038</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J52" s="3">
         <v>-1</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5000,16 +4978,16 @@
         <v>10039</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J53" s="3">
         <v>-1</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5017,16 +4995,16 @@
         <v>10040</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J54" s="3">
         <v>-1</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5034,16 +5012,16 @@
         <v>10041</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="J55" s="3">
         <v>-1</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5051,16 +5029,16 @@
         <v>10042</v>
       </c>
       <c r="B56" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M56" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="J56" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L56" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="M56" s="23" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5068,19 +5046,19 @@
         <v>10043</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J57" s="3">
         <v>-1</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5088,16 +5066,16 @@
         <v>10044</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J58" s="3">
         <v>-1</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5105,16 +5083,16 @@
         <v>10046</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="N59" s="24" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="O59" s="25" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5122,7 +5100,7 @@
         <v>20056</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K60" s="22">
         <v>1</v>
@@ -5133,7 +5111,7 @@
         <v>20057</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K61" s="22">
         <v>1</v>
@@ -5144,7 +5122,7 @@
         <v>10047</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5152,10 +5130,10 @@
         <v>10048</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H63" s="22">
         <v>1</v>
@@ -5166,7 +5144,7 @@
         <v>10049</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E64" s="22">
         <v>1</v>
@@ -5177,7 +5155,7 @@
         <v>10050</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E65" s="22">
         <v>-1</v>
@@ -5188,13 +5166,13 @@
         <v>10051</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="N66" s="24" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="O66" s="25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5202,10 +5180,10 @@
         <v>20058</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="K67" s="22">
         <v>1</v>
@@ -5216,10 +5194,10 @@
         <v>20059</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E68" s="22">
         <v>-1</v>
@@ -5233,13 +5211,13 @@
         <v>10052</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="N69" s="24" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="O69" s="25" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5247,7 +5225,7 @@
         <v>20060</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K70" s="22">
         <v>1</v>
@@ -5258,13 +5236,13 @@
         <v>20061</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K71" s="22">
         <v>1</v>
       </c>
       <c r="O71" s="25" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5272,7 +5250,7 @@
         <v>10053</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D72" s="22">
         <v>1</v>
@@ -5283,7 +5261,7 @@
         <v>10054</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D73" s="22">
         <v>1</v>
@@ -5294,7 +5272,7 @@
         <v>10055</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E74" s="22">
         <v>1</v>
@@ -5305,7 +5283,7 @@
         <v>10056</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E75" s="22">
         <v>1</v>
@@ -5316,7 +5294,7 @@
         <v>10057</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E76" s="22">
         <v>1</v>
@@ -5327,7 +5305,7 @@
         <v>10058</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E77" s="22">
         <v>1</v>
@@ -5338,7 +5316,7 @@
         <v>10059</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E78" s="22">
         <v>1</v>
@@ -5349,7 +5327,7 @@
         <v>10060</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E79" s="22">
         <v>1</v>
@@ -5360,7 +5338,7 @@
         <v>10061</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E80" s="22">
         <v>1</v>
@@ -5371,7 +5349,7 @@
         <v>10062</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E81" s="22">
         <v>1</v>
@@ -5382,7 +5360,7 @@
         <v>10063</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E82" s="22">
         <v>1</v>
@@ -5393,7 +5371,7 @@
         <v>10064</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E83" s="22">
         <v>1</v>
@@ -5404,7 +5382,7 @@
         <v>10065</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5412,7 +5390,7 @@
         <v>10066</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5420,19 +5398,19 @@
         <v>10067</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="N86" s="24" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O86" s="25" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5440,7 +5418,7 @@
         <v>20067</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K87" s="22">
         <v>1</v>
@@ -5451,7 +5429,7 @@
         <v>20068</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K88" s="22">
         <v>1</v>
@@ -5462,7 +5440,7 @@
         <v>10068</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G89" s="22">
         <v>-1</v>
@@ -5473,13 +5451,13 @@
         <v>10069</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G90" s="22">
         <v>-1</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5487,13 +5465,13 @@
         <v>10070</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G91" s="22">
         <v>-1</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5501,7 +5479,7 @@
         <v>10071</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5509,16 +5487,16 @@
         <v>10072</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N93" s="24" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="O93" s="25" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5526,7 +5504,7 @@
         <v>20072</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K94" s="22">
         <v>1</v>
@@ -5537,7 +5515,7 @@
         <v>20073</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D95" s="22">
         <v>-1</v>
@@ -5554,7 +5532,7 @@
         <v>10073</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D96" s="22">
         <v>-1</v>
@@ -5571,7 +5549,7 @@
         <v>10074</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D97" s="22">
         <v>-1</v>
@@ -5585,7 +5563,7 @@
         <v>10075</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D98" s="22">
         <v>-1</v>
@@ -5602,7 +5580,7 @@
         <v>10076</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F99" s="22">
         <v>1</v>
@@ -5616,16 +5594,16 @@
         <v>10077</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J100" s="13">
         <v>-1</v>
       </c>
       <c r="L100" s="13" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5633,16 +5611,16 @@
         <v>10078</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="J101" s="13">
         <v>-1</v>
       </c>
       <c r="L101" s="13" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="M101" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5650,16 +5628,16 @@
         <v>10079</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J102" s="13">
         <v>-1</v>
       </c>
       <c r="L102" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5667,16 +5645,16 @@
         <v>10080</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="J103" s="13">
         <v>-1</v>
       </c>
       <c r="L103" s="13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5684,16 +5662,16 @@
         <v>10081</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="J104" s="13">
         <v>-1</v>
       </c>
       <c r="L104" s="13" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5701,19 +5679,19 @@
         <v>10082</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="J105" s="13">
         <v>-1</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="O105" s="13" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5721,16 +5699,16 @@
         <v>10083</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="J106" s="5">
         <v>-1</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5738,16 +5716,16 @@
         <v>10084</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J107" s="5">
         <v>-1</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5755,16 +5733,16 @@
         <v>10085</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J108" s="5">
         <v>-1</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5772,16 +5750,16 @@
         <v>10086</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J109" s="5">
         <v>-1</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5789,16 +5767,16 @@
         <v>10087</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J110" s="5">
         <v>-1</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:15" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5806,7 +5784,7 @@
         <v>10088</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H111" s="14">
         <v>-5</v>
@@ -5815,13 +5793,13 @@
         <v>8</v>
       </c>
       <c r="L111" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:15" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5829,16 +5807,16 @@
         <v>10089</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="J112" s="6">
         <v>-1</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:15" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5846,16 +5824,16 @@
         <v>10090</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="J113" s="6">
         <v>-1</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:15" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5863,16 +5841,16 @@
         <v>10091</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="J114" s="6">
         <v>-1</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:15" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5880,16 +5858,16 @@
         <v>10092</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="J115" s="6">
         <v>-1</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:15" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5897,16 +5875,16 @@
         <v>10093</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="J116" s="6">
         <v>-1</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:15" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5914,7 +5892,7 @@
         <v>10094</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H117" s="6">
         <v>-10</v>
@@ -5923,10 +5901,10 @@
         <v>-1</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:15" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5934,19 +5912,19 @@
         <v>10095</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J118" s="6">
         <v>-1</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="O118" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5954,16 +5932,16 @@
         <v>10096</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="J119" s="15">
         <v>-1</v>
       </c>
       <c r="L119" s="15" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M119" s="15" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5971,16 +5949,16 @@
         <v>10097</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="J120" s="15">
         <v>-1</v>
       </c>
       <c r="L120" s="15" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M120" s="15" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5988,7 +5966,7 @@
         <v>10098</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E121" s="15">
         <v>5</v>
@@ -5997,10 +5975,10 @@
         <v>-1</v>
       </c>
       <c r="L121" s="15" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M121" s="15" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,16 +5986,16 @@
         <v>10099</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="J122" s="15">
         <v>-1</v>
       </c>
       <c r="L122" s="15" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="M122" s="15" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6025,16 +6003,16 @@
         <v>10100</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J123" s="15">
         <v>-1</v>
       </c>
       <c r="L123" s="15" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M123" s="15" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6042,16 +6020,16 @@
         <v>10101</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J124" s="15">
         <v>-1</v>
       </c>
       <c r="L124" s="15" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M124" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6059,19 +6037,19 @@
         <v>10102</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="J125" s="15">
         <v>-1</v>
       </c>
       <c r="L125" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="M125" s="15" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="O125" s="15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6079,16 +6057,16 @@
         <v>10103</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="J126" s="15">
         <v>-1</v>
       </c>
       <c r="L126" s="15" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="M126" s="15" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6096,16 +6074,16 @@
         <v>10104</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="J127" s="15">
         <v>-1</v>
       </c>
       <c r="L127" s="15" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="M127" s="15" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6113,16 +6091,16 @@
         <v>10105</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="J128" s="15">
         <v>-1</v>
       </c>
       <c r="L128" s="15" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M128" s="15" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6130,16 +6108,16 @@
         <v>10106</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J129" s="15">
         <v>-1</v>
       </c>
       <c r="L129" s="15" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M129" s="15" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6147,16 +6125,16 @@
         <v>10107</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="J130" s="15">
         <v>-1</v>
       </c>
       <c r="L130" s="15" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M130" s="15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6164,16 +6142,16 @@
         <v>10108</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="J131" s="15">
         <v>-1</v>
       </c>
       <c r="L131" s="15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="M131" s="15" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6181,16 +6159,16 @@
         <v>10109</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="J132" s="15">
         <v>-1</v>
       </c>
       <c r="L132" s="15" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M132" s="15" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6198,16 +6176,16 @@
         <v>10110</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="J133" s="15">
         <v>-1</v>
       </c>
       <c r="L133" s="15" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="M133" s="15" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6215,16 +6193,16 @@
         <v>10111</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J134" s="15">
         <v>-1</v>
       </c>
       <c r="L134" s="15" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M134" s="15" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6232,16 +6210,16 @@
         <v>10112</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="J135" s="15">
         <v>-1</v>
       </c>
       <c r="L135" s="15" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="M135" s="15" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6249,16 +6227,16 @@
         <v>10113</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J136" s="15">
         <v>-1</v>
       </c>
       <c r="L136" s="15" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="M136" s="15" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6266,16 +6244,16 @@
         <v>10114</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="J137" s="15">
         <v>-1</v>
       </c>
       <c r="L137" s="15" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="M137" s="15" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6283,16 +6261,16 @@
         <v>10115</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J138" s="15">
         <v>-1</v>
       </c>
       <c r="L138" s="15" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M138" s="15" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6300,16 +6278,16 @@
         <v>10116</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J139" s="15">
         <v>-1</v>
       </c>
       <c r="L139" s="15" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="M139" s="15" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6317,19 +6295,19 @@
         <v>10117</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J140" s="15">
         <v>-1</v>
       </c>
       <c r="L140" s="15" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="M140" s="15" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="O140" s="15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6337,16 +6315,16 @@
         <v>10118</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J141" s="7">
         <v>-1</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6354,22 +6332,22 @@
         <v>10119</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J142" s="7">
         <v>-1</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N142" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6377,7 +6355,7 @@
         <v>20120</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="K143" s="7">
         <v>1</v>
@@ -6388,7 +6366,7 @@
         <v>20121</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="K144" s="7">
         <v>1</v>
@@ -6399,16 +6377,16 @@
         <v>10120</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J145" s="7">
         <v>-1</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6416,16 +6394,16 @@
         <v>10121</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="J146" s="7">
         <v>-1</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M146" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6433,16 +6411,16 @@
         <v>10122</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="J147" s="7">
         <v>-1</v>
       </c>
       <c r="L147" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6450,16 +6428,16 @@
         <v>10123</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="J148" s="7">
         <v>-1</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6467,16 +6445,16 @@
         <v>10124</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J149" s="7">
         <v>-1</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6484,16 +6462,16 @@
         <v>10125</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="J150" s="7">
         <v>-1</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="M150" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6501,19 +6479,19 @@
         <v>10126</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="J151" s="7">
         <v>-1</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6521,16 +6499,16 @@
         <v>10127</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="J152" s="7">
         <v>-1</v>
       </c>
       <c r="L152" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M152" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6538,16 +6516,16 @@
         <v>10128</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="J153" s="7">
         <v>-1</v>
       </c>
       <c r="L153" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="M153" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6555,16 +6533,16 @@
         <v>10129</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J154" s="7">
         <v>-1</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M154" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6572,16 +6550,16 @@
         <v>10130</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="J155" s="7">
         <v>-1</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6589,16 +6567,16 @@
         <v>10131</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="J156" s="7">
         <v>-1</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M156" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6606,16 +6584,16 @@
         <v>10132</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="J157" s="7">
         <v>-1</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M157" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6623,16 +6601,16 @@
         <v>10133</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="J158" s="7">
         <v>-1</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M158" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6640,16 +6618,16 @@
         <v>10134</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J159" s="7">
         <v>-1</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="M159" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6657,16 +6635,16 @@
         <v>10135</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J160" s="7">
         <v>-1</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="M160" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6674,16 +6652,16 @@
         <v>10136</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="J161" s="7">
         <v>-1</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="M161" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6691,19 +6669,19 @@
         <v>10137</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="J162" s="7">
         <v>-1</v>
       </c>
       <c r="L162" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M162" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6711,16 +6689,16 @@
         <v>10138</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J163" s="7">
         <v>-1</v>
       </c>
       <c r="L163" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M163" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6728,16 +6706,16 @@
         <v>10139</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J164" s="7">
         <v>-1</v>
       </c>
       <c r="L164" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="M164" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6745,16 +6723,16 @@
         <v>10140</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="J165" s="7">
         <v>-1</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="M165" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6762,16 +6740,16 @@
         <v>10141</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="J166" s="7">
         <v>-1</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="M166" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:15" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6779,16 +6757,16 @@
         <v>10142</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J167" s="16">
         <v>8</v>
       </c>
       <c r="L167" s="16" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M167" s="16" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6796,16 +6774,16 @@
         <v>10143</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="J168" s="17">
         <v>-1</v>
       </c>
       <c r="L168" s="17" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="M168" s="17" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6813,22 +6791,22 @@
         <v>10144</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="J169" s="17">
         <v>-1</v>
       </c>
       <c r="L169" s="17" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="M169" s="17" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="N169" s="17" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="O169" s="17" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6836,7 +6814,7 @@
         <v>20145</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="K170" s="17">
         <v>1</v>
@@ -6847,7 +6825,7 @@
         <v>20146</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="K171" s="17">
         <v>1</v>
@@ -6858,16 +6836,16 @@
         <v>10145</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="J172" s="17">
         <v>-1</v>
       </c>
       <c r="L172" s="17" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="M172" s="17" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6875,16 +6853,16 @@
         <v>10146</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="J173" s="17">
         <v>-1</v>
       </c>
       <c r="L173" s="17" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M173" s="17" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6892,16 +6870,16 @@
         <v>10147</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="J174" s="17">
         <v>-1</v>
       </c>
       <c r="L174" s="17" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M174" s="17" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6909,16 +6887,16 @@
         <v>10148</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="J175" s="17">
         <v>-1</v>
       </c>
       <c r="L175" s="17" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M175" s="17" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6926,16 +6904,16 @@
         <v>10149</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="J176" s="17">
         <v>-1</v>
       </c>
       <c r="L176" s="17" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M176" s="17" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6943,16 +6921,16 @@
         <v>10150</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="J177" s="17">
         <v>-1</v>
       </c>
       <c r="L177" s="17" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="M177" s="17" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6960,16 +6938,16 @@
         <v>10151</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="J178" s="17">
         <v>-1</v>
       </c>
       <c r="L178" s="17" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="M178" s="17" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6977,16 +6955,16 @@
         <v>10152</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="J179" s="17">
         <v>-1</v>
       </c>
       <c r="L179" s="17" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="M179" s="17" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6994,16 +6972,16 @@
         <v>10153</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="J180" s="17">
         <v>-1</v>
       </c>
       <c r="L180" s="17" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M180" s="17" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7011,16 +6989,16 @@
         <v>10154</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J181" s="17">
         <v>-1</v>
       </c>
       <c r="L181" s="17" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M181" s="17" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7028,16 +7006,16 @@
         <v>10155</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="J182" s="17">
         <v>-1</v>
       </c>
       <c r="L182" s="17" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="M182" s="17" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7045,16 +7023,16 @@
         <v>10156</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="J183" s="17">
         <v>-1</v>
       </c>
       <c r="L183" s="17" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="M183" s="17" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="184" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7062,16 +7040,16 @@
         <v>10157</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J184" s="17">
         <v>-1</v>
       </c>
       <c r="L184" s="17" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M184" s="17" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="185" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7079,22 +7057,22 @@
         <v>10158</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="J185" s="17">
         <v>-1</v>
       </c>
       <c r="L185" s="17" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="M185" s="17" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="N185" s="17" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="O185" s="17" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7102,13 +7080,13 @@
         <v>20158</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="K186" s="17">
         <v>1</v>
       </c>
       <c r="N186" s="17" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="187" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7116,7 +7094,7 @@
         <v>20159</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="K187" s="17">
         <v>1</v>
@@ -7127,7 +7105,7 @@
         <v>20160</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="K188" s="17">
         <v>1</v>
@@ -7138,16 +7116,16 @@
         <v>10159</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="J189" s="17">
         <v>-1</v>
       </c>
       <c r="L189" s="17" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="M189" s="17" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7155,16 +7133,16 @@
         <v>10160</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J190" s="17">
         <v>-1</v>
       </c>
       <c r="L190" s="17" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M190" s="17" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7172,16 +7150,16 @@
         <v>10161</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="J191" s="17">
         <v>-1</v>
       </c>
       <c r="L191" s="17" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="M191" s="17" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="192" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7189,16 +7167,16 @@
         <v>10162</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J192" s="17">
         <v>-1</v>
       </c>
       <c r="L192" s="17" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="M192" s="17" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7206,16 +7184,16 @@
         <v>10163</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="J193" s="17">
         <v>-1</v>
       </c>
       <c r="L193" s="17" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M193" s="17" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="194" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7223,16 +7201,16 @@
         <v>10164</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="J194" s="17">
         <v>-1</v>
       </c>
       <c r="L194" s="17" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M194" s="17" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="195" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7240,16 +7218,16 @@
         <v>10165</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="J195" s="17">
         <v>-1</v>
       </c>
       <c r="L195" s="17" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="M195" s="17" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="196" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7257,16 +7235,16 @@
         <v>10166</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="J196" s="17">
         <v>-1</v>
       </c>
       <c r="L196" s="17" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M196" s="17" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="197" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7274,16 +7252,16 @@
         <v>10167</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J197" s="17">
         <v>-1</v>
       </c>
       <c r="L197" s="17" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="M197" s="17" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7291,16 +7269,16 @@
         <v>10168</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="J198" s="17">
         <v>-1</v>
       </c>
       <c r="L198" s="17" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="M198" s="17" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7308,16 +7286,16 @@
         <v>10169</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="J199" s="17">
         <v>-1</v>
       </c>
       <c r="L199" s="17" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="M199" s="17" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="200" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7325,16 +7303,16 @@
         <v>10170</v>
       </c>
       <c r="B200" s="17" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="J200" s="17">
         <v>-1</v>
       </c>
       <c r="L200" s="17" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="M200" s="17" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7342,16 +7320,16 @@
         <v>10171</v>
       </c>
       <c r="B201" s="17" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="J201" s="17">
         <v>-1</v>
       </c>
       <c r="L201" s="17" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="M201" s="17" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="202" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7359,16 +7337,16 @@
         <v>10172</v>
       </c>
       <c r="B202" s="17" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="J202" s="17">
         <v>-1</v>
       </c>
       <c r="L202" s="17" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="M202" s="17" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="203" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7376,16 +7354,16 @@
         <v>10173</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="J203" s="17">
         <v>-1</v>
       </c>
       <c r="L203" s="17" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="M203" s="17" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="204" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7393,16 +7371,16 @@
         <v>10174</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J204" s="17">
         <v>-1</v>
       </c>
       <c r="L204" s="17" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="M204" s="17" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="205" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7410,16 +7388,16 @@
         <v>10175</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="J205" s="17">
         <v>-1</v>
       </c>
       <c r="L205" s="17" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="M205" s="17" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="206" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7427,16 +7405,16 @@
         <v>10176</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="J206" s="17">
         <v>-1</v>
       </c>
       <c r="L206" s="17" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M206" s="17" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="207" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7444,16 +7422,16 @@
         <v>10177</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="J207" s="17">
         <v>-1</v>
       </c>
       <c r="L207" s="17" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="M207" s="17" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="208" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7461,16 +7439,16 @@
         <v>10178</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="J208" s="17">
         <v>-1</v>
       </c>
       <c r="L208" s="17" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M208" s="17" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="209" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7478,16 +7456,16 @@
         <v>10179</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="J209" s="17">
         <v>-1</v>
       </c>
       <c r="L209" s="17" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="M209" s="17" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="210" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7495,16 +7473,16 @@
         <v>10180</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="J210" s="17">
         <v>-1</v>
       </c>
       <c r="L210" s="17" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M210" s="17" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="211" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7512,16 +7490,16 @@
         <v>10181</v>
       </c>
       <c r="B211" s="17" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="J211" s="17">
         <v>-1</v>
       </c>
       <c r="L211" s="17" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M211" s="17" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7529,16 +7507,16 @@
         <v>10182</v>
       </c>
       <c r="B212" s="17" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="J212" s="17">
         <v>-1</v>
       </c>
       <c r="L212" s="17" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="M212" s="17" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="213" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7546,16 +7524,16 @@
         <v>10183</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="J213" s="17">
         <v>-1</v>
       </c>
       <c r="L213" s="17" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="M213" s="17" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7563,16 +7541,16 @@
         <v>10184</v>
       </c>
       <c r="B214" s="17" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="J214" s="17">
         <v>-1</v>
       </c>
       <c r="L214" s="17" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="M214" s="17" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="215" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7580,16 +7558,16 @@
         <v>10185</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="J215" s="17">
         <v>-1</v>
       </c>
       <c r="L215" s="17" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="M215" s="17" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7597,16 +7575,16 @@
         <v>10186</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J216" s="17">
         <v>-1</v>
       </c>
       <c r="L216" s="17" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="M216" s="17" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7614,16 +7592,16 @@
         <v>10187</v>
       </c>
       <c r="B217" s="17" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="J217" s="17">
         <v>-1</v>
       </c>
       <c r="L217" s="17" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="M217" s="17" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="218" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7631,16 +7609,16 @@
         <v>10188</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J218" s="17">
         <v>-1</v>
       </c>
       <c r="L218" s="17" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="M218" s="17" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="219" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7648,22 +7626,22 @@
         <v>10189</v>
       </c>
       <c r="B219" s="17" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="J219" s="17">
         <v>-1</v>
       </c>
       <c r="L219" s="17" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M219" s="17" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="N219" s="17" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="O219" s="17" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="220" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7671,7 +7649,7 @@
         <v>20190</v>
       </c>
       <c r="B220" s="17" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="K220" s="17">
         <v>1</v>
@@ -7682,7 +7660,7 @@
         <v>20191</v>
       </c>
       <c r="B221" s="17" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="K221" s="17">
         <v>1</v>
@@ -7693,16 +7671,16 @@
         <v>10190</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="J222" s="17">
         <v>-1</v>
       </c>
       <c r="L222" s="17" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="M222" s="17" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7710,16 +7688,16 @@
         <v>10191</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="J223" s="17">
         <v>-1</v>
       </c>
       <c r="L223" s="17" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="M223" s="17" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="224" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7727,16 +7705,16 @@
         <v>10192</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="J224" s="17">
         <v>-1</v>
       </c>
       <c r="L224" s="17" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="M224" s="17" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="225" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7744,16 +7722,16 @@
         <v>10193</v>
       </c>
       <c r="B225" s="17" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="J225" s="17">
         <v>-1</v>
       </c>
       <c r="L225" s="17" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="M225" s="17" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7761,16 +7739,16 @@
         <v>10194</v>
       </c>
       <c r="B226" s="17" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="J226" s="17">
         <v>-1</v>
       </c>
       <c r="L226" s="17" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="M226" s="17" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="227" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7778,16 +7756,16 @@
         <v>10195</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="J227" s="17">
         <v>-1</v>
       </c>
       <c r="L227" s="17" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="M227" s="17" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="228" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7795,16 +7773,16 @@
         <v>10196</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="J228" s="17">
         <v>-1</v>
       </c>
       <c r="L228" s="17" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="M228" s="17" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="229" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7812,16 +7790,16 @@
         <v>10197</v>
       </c>
       <c r="B229" s="17" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="J229" s="17">
         <v>-1</v>
       </c>
       <c r="L229" s="17" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="M229" s="17" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="230" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7829,16 +7807,16 @@
         <v>10198</v>
       </c>
       <c r="B230" s="17" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="J230" s="17">
         <v>-1</v>
       </c>
       <c r="L230" s="17" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="M230" s="17" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="231" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7846,16 +7824,16 @@
         <v>10199</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="J231" s="17">
         <v>-1</v>
       </c>
       <c r="L231" s="17" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="M231" s="17" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="232" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7863,16 +7841,16 @@
         <v>10200</v>
       </c>
       <c r="B232" s="17" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="J232" s="17">
         <v>-1</v>
       </c>
       <c r="L232" s="17" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="M232" s="17" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="233" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7880,16 +7858,16 @@
         <v>10201</v>
       </c>
       <c r="B233" s="17" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="J233" s="17">
         <v>-1</v>
       </c>
       <c r="L233" s="17" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="M233" s="17" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="234" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7897,16 +7875,16 @@
         <v>10202</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="J234" s="17">
         <v>-1</v>
       </c>
       <c r="L234" s="17" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="M234" s="17" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="235" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7914,16 +7892,16 @@
         <v>10203</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="J235" s="17">
         <v>-1</v>
       </c>
       <c r="L235" s="17" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="M235" s="17" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7931,16 +7909,16 @@
         <v>10204</v>
       </c>
       <c r="B236" s="17" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="J236" s="17">
         <v>-1</v>
       </c>
       <c r="L236" s="17" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="M236" s="17" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7948,16 +7926,16 @@
         <v>10205</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="J237" s="17">
         <v>-1</v>
       </c>
       <c r="L237" s="17" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="M237" s="17" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="238" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7965,16 +7943,16 @@
         <v>10206</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="J238" s="17">
         <v>-1</v>
       </c>
       <c r="L238" s="17" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="M238" s="17" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7982,16 +7960,16 @@
         <v>10207</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="J239" s="17">
         <v>-1</v>
       </c>
       <c r="L239" s="17" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="M239" s="17" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="240" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7999,16 +7977,16 @@
         <v>10208</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="J240" s="17">
         <v>-1</v>
       </c>
       <c r="L240" s="17" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="M240" s="17" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="241" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8016,16 +7994,16 @@
         <v>10209</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="J241" s="17">
         <v>-1</v>
       </c>
       <c r="L241" s="17" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="M241" s="17" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="242" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8033,16 +8011,16 @@
         <v>10210</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="J242" s="17">
         <v>-1</v>
       </c>
       <c r="L242" s="17" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="M242" s="17" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="243" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8050,16 +8028,16 @@
         <v>10211</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="J243" s="17">
         <v>-1</v>
       </c>
       <c r="L243" s="17" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="M243" s="17" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="244" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8067,16 +8045,16 @@
         <v>10212</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="J244" s="17">
         <v>-1</v>
       </c>
       <c r="L244" s="17" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="M244" s="17" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="245" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8084,16 +8062,16 @@
         <v>10213</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="J245" s="17">
         <v>-1</v>
       </c>
       <c r="L245" s="17" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="M245" s="17" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="246" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8101,16 +8079,16 @@
         <v>10214</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="J246" s="17">
         <v>-1</v>
       </c>
       <c r="L246" s="17" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="M246" s="17" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8118,16 +8096,16 @@
         <v>10215</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="J247" s="17">
         <v>-1</v>
       </c>
       <c r="L247" s="17" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="M247" s="17" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="248" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8135,16 +8113,16 @@
         <v>10216</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="J248" s="17">
         <v>-1</v>
       </c>
       <c r="L248" s="17" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="M248" s="17" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="249" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8152,19 +8130,19 @@
         <v>10217</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="J249" s="17">
         <v>-1</v>
       </c>
       <c r="L249" s="17" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="M249" s="17" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O249" s="17" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="250" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8172,16 +8150,16 @@
         <v>10218</v>
       </c>
       <c r="B250" s="17" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="J250" s="17">
         <v>-1</v>
       </c>
       <c r="L250" s="17" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="M250" s="17" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="251" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8189,16 +8167,16 @@
         <v>10219</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="J251" s="17">
         <v>-1</v>
       </c>
       <c r="L251" s="17" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="M251" s="17" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="252" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8206,16 +8184,16 @@
         <v>10220</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="J252" s="17">
         <v>-1</v>
       </c>
       <c r="L252" s="17" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="M252" s="17" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="253" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8223,16 +8201,16 @@
         <v>10221</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="J253" s="17">
         <v>-1</v>
       </c>
       <c r="L253" s="17" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="M253" s="17" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="254" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8240,16 +8218,16 @@
         <v>10222</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="J254" s="17">
         <v>-1</v>
       </c>
       <c r="L254" s="17" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="M254" s="17" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="255" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8257,16 +8235,16 @@
         <v>10223</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="J255" s="17">
         <v>-1</v>
       </c>
       <c r="L255" s="17" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="M255" s="17" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="256" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8274,16 +8252,16 @@
         <v>10224</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="J256" s="17">
         <v>-1</v>
       </c>
       <c r="L256" s="17" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="M256" s="17" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="257" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8291,16 +8269,16 @@
         <v>10225</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="J257" s="17">
         <v>-1</v>
       </c>
       <c r="L257" s="17" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="M257" s="17" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="258" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8308,16 +8286,16 @@
         <v>10226</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="J258" s="17">
         <v>-1</v>
       </c>
       <c r="L258" s="17" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="M258" s="17" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="259" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8325,19 +8303,19 @@
         <v>10227</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="J259" s="17">
         <v>-1</v>
       </c>
       <c r="L259" s="17" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="M259" s="17" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="O259" s="17" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="260" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8345,16 +8323,16 @@
         <v>10228</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="J260" s="17">
         <v>-1</v>
       </c>
       <c r="L260" s="17" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="M260" s="17" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8362,16 +8340,16 @@
         <v>10229</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="J261" s="17">
         <v>-1</v>
       </c>
       <c r="L261" s="17" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="M261" s="17" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="262" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8379,16 +8357,16 @@
         <v>10230</v>
       </c>
       <c r="B262" s="17" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="J262" s="17">
         <v>-1</v>
       </c>
       <c r="L262" s="17" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="M262" s="17" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8396,16 +8374,16 @@
         <v>10231</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="J263" s="17">
         <v>-1</v>
       </c>
       <c r="L263" s="17" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="M263" s="17" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="264" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8413,16 +8391,16 @@
         <v>10232</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="J264" s="17">
         <v>-1</v>
       </c>
       <c r="L264" s="17" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="M264" s="17" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="265" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8430,16 +8408,16 @@
         <v>10233</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="J265" s="17">
         <v>-1</v>
       </c>
       <c r="L265" s="17" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="M265" s="17" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8447,16 +8425,16 @@
         <v>10234</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="J266" s="17">
         <v>-1</v>
       </c>
       <c r="L266" s="17" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="M266" s="17" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="267" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8464,16 +8442,16 @@
         <v>10235</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="J267" s="17">
         <v>-1</v>
       </c>
       <c r="L267" s="17" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="M267" s="17" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="1:15" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8481,16 +8459,16 @@
         <v>10236</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="J268" s="18">
         <v>8</v>
       </c>
       <c r="L268" s="18" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="M268" s="18" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8498,16 +8476,16 @@
         <v>10237</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="J269" s="17">
         <v>-1</v>
       </c>
       <c r="L269" s="17" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="M269" s="17" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="270" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8515,16 +8493,16 @@
         <v>10238</v>
       </c>
       <c r="B270" s="17" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="J270" s="17">
         <v>-1</v>
       </c>
       <c r="L270" s="17" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="M270" s="17" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="271" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8532,16 +8510,16 @@
         <v>10239</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="J271" s="17">
         <v>-1</v>
       </c>
       <c r="L271" s="17" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="M271" s="17" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="272" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8549,16 +8527,16 @@
         <v>10240</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="J272" s="17">
         <v>-1</v>
       </c>
       <c r="L272" s="17" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="M272" s="17" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="273" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8566,16 +8544,16 @@
         <v>10241</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="J273" s="17">
         <v>-1</v>
       </c>
       <c r="L273" s="17" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="M273" s="17" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="274" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8583,16 +8561,16 @@
         <v>10242</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="J274" s="17">
         <v>-1</v>
       </c>
       <c r="L274" s="17" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="M274" s="17" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="275" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8600,16 +8578,16 @@
         <v>10243</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="J275" s="17">
         <v>-1</v>
       </c>
       <c r="L275" s="17" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="M275" s="17" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="276" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8617,16 +8595,16 @@
         <v>10244</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="J276" s="17">
         <v>-1</v>
       </c>
       <c r="L276" s="17" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="M276" s="17" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="277" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8634,16 +8612,16 @@
         <v>10245</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J277" s="17">
         <v>-1</v>
       </c>
       <c r="L277" s="17" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="M277" s="17" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="278" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8651,16 +8629,16 @@
         <v>10246</v>
       </c>
       <c r="B278" s="17" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="J278" s="17">
         <v>-1</v>
       </c>
       <c r="L278" s="17" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="M278" s="17" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8668,16 +8646,16 @@
         <v>10247</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="J279" s="17">
         <v>-1</v>
       </c>
       <c r="L279" s="17" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="M279" s="17" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8685,16 +8663,16 @@
         <v>10248</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="J280" s="17">
         <v>-1</v>
       </c>
       <c r="L280" s="17" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="M280" s="17" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="281" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8702,16 +8680,16 @@
         <v>10249</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="J281" s="17">
         <v>-1</v>
       </c>
       <c r="L281" s="17" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="M281" s="17" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="282" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8719,16 +8697,16 @@
         <v>10250</v>
       </c>
       <c r="B282" s="17" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="J282" s="17">
         <v>-1</v>
       </c>
       <c r="L282" s="17" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="M282" s="17" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8736,16 +8714,16 @@
         <v>10251</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="J283" s="17">
         <v>-1</v>
       </c>
       <c r="L283" s="17" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="M283" s="17" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8753,16 +8731,16 @@
         <v>10252</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="J284" s="17">
         <v>-1</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="M284" s="17" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="285" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8770,16 +8748,16 @@
         <v>10253</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="J285" s="17">
         <v>-1</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="M285" s="17" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="286" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8787,16 +8765,16 @@
         <v>10254</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="J286" s="17">
         <v>-1</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="M286" s="17" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
     </row>
     <row r="287" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8804,16 +8782,16 @@
         <v>10255</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="J287" s="17">
         <v>-1</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="M287" s="17" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="288" spans="1:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8821,16 +8799,16 @@
         <v>10256</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="J288" s="17">
         <v>-1</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="M288" s="17" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="1:14" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8838,22 +8816,22 @@
         <v>10257</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="C289" s="18" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="J289" s="18">
         <v>8</v>
       </c>
       <c r="L289" s="18" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="M289" s="18" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="N289" s="18" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="290" spans="1:14" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8861,7 +8839,7 @@
         <v>10258</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="K290" s="18">
         <v>1</v>
@@ -8873,16 +8851,16 @@
         <v>10259</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="J291" s="3">
         <v>-1</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="M291" s="50" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="292" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8890,16 +8868,16 @@
         <v>10260</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="J292" s="3">
         <v>-1</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="M292" s="3" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="293" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8907,16 +8885,16 @@
         <v>10261</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="J293" s="3">
         <v>-1</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="M293" s="3" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="294" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8924,16 +8902,16 @@
         <v>10262</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="J294" s="3">
         <v>-1</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="M294" s="3" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="295" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8941,16 +8919,16 @@
         <v>10263</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="J295" s="3">
         <v>-1</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="M295" s="3" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="296" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8958,16 +8936,16 @@
         <v>10264</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="J296" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="M296" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="J296" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L296" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="M296" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="297" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8975,16 +8953,16 @@
         <v>10265</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="J297" s="3">
         <v>-1</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="M297" s="3" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="298" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8992,16 +8970,16 @@
         <v>10266</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="J298" s="3">
         <v>-1</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="M298" s="3" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="299" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9009,16 +8987,16 @@
         <v>10267</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="J299" s="3">
         <v>-1</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="M299" s="3" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="300" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9026,16 +9004,16 @@
         <v>10268</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="J300" s="3">
         <v>-1</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="M300" s="3" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="301" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9043,16 +9021,16 @@
         <v>10269</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="J301" s="3">
         <v>-1</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="M301" s="3" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="302" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9060,16 +9038,16 @@
         <v>10270</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="J302" s="3">
         <v>-1</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="303" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9077,16 +9055,16 @@
         <v>10271</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="J303" s="3">
         <v>-1</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="M303" s="3" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="304" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9094,16 +9072,16 @@
         <v>10272</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="J304" s="3">
         <v>-1</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="305" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9111,16 +9089,16 @@
         <v>10273</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J305" s="3">
         <v>-1</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="306" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9128,16 +9106,16 @@
         <v>10274</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J306" s="3">
         <v>-1</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="307" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9145,16 +9123,16 @@
         <v>10275</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="J307" s="3">
         <v>-1</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="M307" s="3" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="308" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9162,16 +9140,16 @@
         <v>10276</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="J308" s="3">
         <v>-1</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="309" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9179,16 +9157,16 @@
         <v>10277</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="J309" s="3">
         <v>-1</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="310" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9196,16 +9174,16 @@
         <v>10278</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="J310" s="3">
         <v>-1</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="M310" s="3" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="311" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9213,16 +9191,16 @@
         <v>10279</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="J311" s="3">
         <v>-1</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="M311" s="3" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="312" spans="1:15" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9230,14 +9208,14 @@
         <v>10280</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="J312" s="3"/>
       <c r="L312" s="3" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="313" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9245,7 +9223,7 @@
         <v>10281</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="E313" s="22">
         <v>-1</v>
@@ -9259,7 +9237,7 @@
         <v>10282</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E314" s="22">
         <v>1</v>
@@ -9273,16 +9251,16 @@
         <v>10283</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="H315" s="22">
         <v>1</v>
       </c>
       <c r="M315" s="23" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="316" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9290,13 +9268,13 @@
         <v>10284</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="N316" s="24" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="O316" s="25" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="317" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9304,7 +9282,7 @@
         <v>20285</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="H317" s="22">
         <v>1</v>
@@ -9319,7 +9297,7 @@
         <v>20286</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="K318" s="22">
         <v>1</v>
@@ -9331,7 +9309,7 @@
         <v>10285</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="320" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9339,7 +9317,7 @@
         <v>10286</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="321" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9347,7 +9325,7 @@
         <v>10287</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="322" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9355,7 +9333,7 @@
         <v>10288</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="G322" s="22">
         <v>-1</v>
@@ -9369,7 +9347,7 @@
         <v>10289</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G323" s="22">
         <v>-1</v>
@@ -9383,7 +9361,7 @@
         <v>10290</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="325" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9391,7 +9369,7 @@
         <v>10291</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="326" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9399,7 +9377,7 @@
         <v>10292</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="327" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9407,7 +9385,7 @@
         <v>10293</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G327" s="22">
         <v>1</v>
@@ -9421,7 +9399,7 @@
         <v>10294</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="329" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9429,7 +9407,7 @@
         <v>10295</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="330" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9437,7 +9415,7 @@
         <v>10296</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="L330" s="52"/>
     </row>
@@ -9446,7 +9424,7 @@
         <v>10297</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="332" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9454,7 +9432,7 @@
         <v>10298</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="333" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9462,7 +9440,7 @@
         <v>10299</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="334" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9470,7 +9448,7 @@
         <v>10300</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="335" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9478,7 +9456,7 @@
         <v>10301</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
     <row r="336" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9486,7 +9464,7 @@
         <v>10302</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="337" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9494,10 +9472,10 @@
         <v>10303</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="L337" s="23" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="338" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9505,13 +9483,13 @@
         <v>10304</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="H338" s="22">
         <v>1</v>
       </c>
       <c r="L338" s="23" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="339" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9519,13 +9497,13 @@
         <v>10305</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="H339" s="22">
         <v>1</v>
       </c>
       <c r="L339" s="23" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="340" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9533,13 +9511,13 @@
         <v>10306</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="H340" s="22">
         <v>1</v>
       </c>
       <c r="L340" s="23" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="341" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9547,16 +9525,16 @@
         <v>10307</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="L341" s="23" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="N341" s="24" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="O341" s="25" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="342" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9564,7 +9542,7 @@
         <v>20308</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E342" s="22">
         <v>1</v>
@@ -9581,7 +9559,7 @@
         <v>20309</v>
       </c>
       <c r="B343" s="20" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="I343" s="22">
         <v>-1</v>
@@ -9595,7 +9573,7 @@
         <v>10308</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="345" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9603,7 +9581,7 @@
         <v>10309</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="D345" s="22">
         <v>1</v>
@@ -9614,7 +9592,7 @@
         <v>10310</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="347" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9622,7 +9600,7 @@
         <v>10311</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
     </row>
     <row r="348" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9630,13 +9608,13 @@
         <v>10312</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="N348" s="24" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="O348" s="25" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="349" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9644,7 +9622,7 @@
         <v>20313</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="G349" s="22">
         <v>1</v>
@@ -9658,7 +9636,7 @@
         <v>20314</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G350" s="22">
         <v>1</v>
@@ -9672,7 +9650,7 @@
         <v>10313</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="352" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9680,13 +9658,13 @@
         <v>10314</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="N352" s="24" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="O352" s="25" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="353" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9694,7 +9672,7 @@
         <v>20315</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="H353" s="22">
         <v>-1</v>
@@ -9708,7 +9686,7 @@
         <v>20316</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="E354" s="22">
         <v>1</v>
@@ -9722,13 +9700,13 @@
         <v>10315</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="N355" s="24" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="O355" s="25" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="356" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9736,7 +9714,7 @@
         <v>20317</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="K356" s="22">
         <v>1</v>
@@ -9747,7 +9725,7 @@
         <v>20318</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="K357" s="22">
         <v>1</v>
@@ -9758,10 +9736,10 @@
         <v>10316</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="L358" s="23" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="359" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9769,7 +9747,7 @@
         <v>10317</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="360" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9777,7 +9755,7 @@
         <v>10318</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="361" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9785,7 +9763,7 @@
         <v>10319</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="362" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9793,7 +9771,7 @@
         <v>10320</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
     </row>
     <row r="363" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9801,7 +9779,7 @@
         <v>10321</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="364" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9809,7 +9787,7 @@
         <v>10322</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
     </row>
     <row r="365" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9817,7 +9795,7 @@
         <v>10323</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="366" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9825,7 +9803,7 @@
         <v>10324</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
     </row>
     <row r="367" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9833,7 +9811,7 @@
         <v>10325</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="368" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9841,7 +9819,7 @@
         <v>10326</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9849,7 +9827,7 @@
         <v>10327</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9857,7 +9835,7 @@
         <v>10328</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="D370" s="22">
         <v>1</v>
@@ -9871,7 +9849,7 @@
         <v>10329</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="F371" s="22">
         <v>1</v>
@@ -9885,7 +9863,7 @@
         <v>10330</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9893,7 +9871,7 @@
         <v>10331</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9901,7 +9879,7 @@
         <v>10332</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9909,10 +9887,10 @@
         <v>10333</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="C375" s="21" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9920,7 +9898,7 @@
         <v>10334</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9928,7 +9906,7 @@
         <v>10335</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9936,7 +9914,7 @@
         <v>10336</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9944,7 +9922,7 @@
         <v>10337</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="H379" s="22">
         <v>1</v>
@@ -9955,7 +9933,7 @@
         <v>10338</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9963,7 +9941,7 @@
         <v>10339</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
     </row>
     <row r="382" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9971,7 +9949,7 @@
         <v>10340</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
     </row>
     <row r="383" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9979,7 +9957,7 @@
         <v>10341</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9987,7 +9965,7 @@
         <v>10342</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
     </row>
     <row r="385" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9995,7 +9973,7 @@
         <v>10343</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
     <row r="386" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10003,10 +9981,10 @@
         <v>10344</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="L386" s="23" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="387" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10014,10 +9992,10 @@
         <v>10345</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="L387" s="23" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="388" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10025,10 +10003,10 @@
         <v>10346</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="L388" s="23" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="389" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10036,10 +10014,10 @@
         <v>10347</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="L389" s="23" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="390" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10047,10 +10025,10 @@
         <v>10348</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="L390" s="23" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="391" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10058,10 +10036,10 @@
         <v>10349</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="L391" s="23" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="392" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10069,7 +10047,7 @@
         <v>10350</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
     </row>
     <row r="393" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10077,10 +10055,10 @@
         <v>10351</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="L393" s="23" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="394" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10088,10 +10066,10 @@
         <v>10352</v>
       </c>
       <c r="B394" s="20" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="L394" s="23" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10099,10 +10077,10 @@
         <v>10353</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="L395" s="23" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="396" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10110,10 +10088,10 @@
         <v>10354</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="L396" s="23" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="397" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10121,13 +10099,13 @@
         <v>10355</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="L397" s="23" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="M397" s="23" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
     </row>
     <row r="398" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10135,13 +10113,13 @@
         <v>10356</v>
       </c>
       <c r="B398" s="20" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="L398" s="23" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="M398" s="23" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
     </row>
     <row r="399" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10149,13 +10127,13 @@
         <v>10357</v>
       </c>
       <c r="B399" s="20" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="L399" s="23" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="M399" s="23" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
     </row>
     <row r="400" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10163,13 +10141,13 @@
         <v>10358</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="L400" s="23" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="M400" s="23" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="401" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10177,13 +10155,13 @@
         <v>10359</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="L401" s="23" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="M401" s="23" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
     </row>
     <row r="402" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10191,13 +10169,13 @@
         <v>10360</v>
       </c>
       <c r="B402" s="20" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="L402" s="23" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="M402" s="23" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
     </row>
     <row r="403" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10205,13 +10183,13 @@
         <v>10361</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="L403" s="23" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="M403" s="23" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
     </row>
     <row r="404" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10219,13 +10197,13 @@
         <v>10362</v>
       </c>
       <c r="B404" s="20" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="L404" s="23" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="M404" s="23" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
     </row>
     <row r="405" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10233,7 +10211,7 @@
         <v>10363</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
     <row r="406" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10241,10 +10219,10 @@
         <v>10364</v>
       </c>
       <c r="B406" s="20" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="L406" s="23" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="407" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10252,10 +10230,10 @@
         <v>10365</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="L407" s="23" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="408" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10263,7 +10241,7 @@
         <v>10366</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="409" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10271,7 +10249,7 @@
         <v>10367</v>
       </c>
       <c r="B409" s="20" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
     </row>
     <row r="410" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10279,7 +10257,7 @@
         <v>10368</v>
       </c>
       <c r="B410" s="20" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
     </row>
     <row r="411" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10287,7 +10265,7 @@
         <v>10369</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="412" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10295,7 +10273,7 @@
         <v>10370</v>
       </c>
       <c r="B412" s="20" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="413" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10303,7 +10281,7 @@
         <v>10371</v>
       </c>
       <c r="B413" s="20" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
     </row>
     <row r="414" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10311,7 +10289,7 @@
         <v>10372</v>
       </c>
       <c r="B414" s="20" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="415" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10319,10 +10297,10 @@
         <v>10373</v>
       </c>
       <c r="B415" s="20" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="M415" s="23" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
     </row>
     <row r="416" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10330,13 +10308,13 @@
         <v>10374</v>
       </c>
       <c r="B416" s="20" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="L416" s="23" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="M416" s="23" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="417" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10344,13 +10322,13 @@
         <v>10375</v>
       </c>
       <c r="B417" s="20" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="L417" s="23" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="M417" s="23" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="418" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10358,13 +10336,13 @@
         <v>10376</v>
       </c>
       <c r="B418" s="20" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="L418" s="23" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="M418" s="23" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
     </row>
     <row r="419" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10372,7 +10350,7 @@
         <v>10377</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="420" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10380,7 +10358,7 @@
         <v>10378</v>
       </c>
       <c r="B420" s="20" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
     </row>
     <row r="421" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10388,7 +10366,7 @@
         <v>10379</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="422" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10396,7 +10374,7 @@
         <v>10380</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="423" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10404,7 +10382,7 @@
         <v>10381</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
     </row>
     <row r="424" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10412,7 +10390,7 @@
         <v>10382</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
     </row>
     <row r="425" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10420,7 +10398,7 @@
         <v>10383</v>
       </c>
       <c r="B425" s="20" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="426" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10428,7 +10406,7 @@
         <v>10384</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="427" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10436,7 +10414,7 @@
         <v>10385</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
     </row>
     <row r="428" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10444,7 +10422,7 @@
         <v>10386</v>
       </c>
       <c r="B428" s="20" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
     <row r="429" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10452,7 +10430,7 @@
         <v>10387</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
     </row>
     <row r="430" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10460,7 +10438,7 @@
         <v>10388</v>
       </c>
       <c r="B430" s="20" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
     </row>
     <row r="431" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10468,7 +10446,7 @@
         <v>10389</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="N431" s="53"/>
     </row>
@@ -10477,7 +10455,7 @@
         <v>10390</v>
       </c>
       <c r="B432" s="20" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
     </row>
     <row r="433" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10485,7 +10463,7 @@
         <v>10391</v>
       </c>
       <c r="B433" s="20" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
     </row>
     <row r="434" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10493,10 +10471,10 @@
         <v>10392</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="M434" s="23" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="435" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10504,13 +10482,13 @@
         <v>10393</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="L435" s="23" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="M435" s="23" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
     </row>
     <row r="436" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10518,13 +10496,13 @@
         <v>10394</v>
       </c>
       <c r="B436" s="20" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="L436" s="23" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="M436" s="23" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
     </row>
     <row r="437" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10532,13 +10510,13 @@
         <v>10395</v>
       </c>
       <c r="B437" s="20" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="L437" s="23" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="M437" s="23" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
     </row>
     <row r="438" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10546,13 +10524,13 @@
         <v>10396</v>
       </c>
       <c r="B438" s="20" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="L438" s="23" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="M438" s="23" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="439" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10560,13 +10538,13 @@
         <v>10397</v>
       </c>
       <c r="B439" s="20" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="L439" s="23" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="M439" s="23" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="440" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10574,13 +10552,13 @@
         <v>10398</v>
       </c>
       <c r="B440" s="20" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="L440" s="23" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="M440" s="23" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
     </row>
     <row r="441" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10588,7 +10566,7 @@
         <v>10399</v>
       </c>
       <c r="B441" s="20" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
     </row>
     <row r="442" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10596,7 +10574,7 @@
         <v>10400</v>
       </c>
       <c r="B442" s="20" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
     </row>
     <row r="443" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10604,7 +10582,7 @@
         <v>10401</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
     </row>
     <row r="444" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10612,7 +10590,7 @@
         <v>10402</v>
       </c>
       <c r="B444" s="20" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="445" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -10620,7 +10598,7 @@
         <v>10403</v>
       </c>
       <c r="B445" s="20" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
     </row>
     <row r="446" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10628,7 +10606,7 @@
         <v>10404</v>
       </c>
       <c r="B446" s="20" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10636,7 +10614,7 @@
         <v>10405</v>
       </c>
       <c r="B447" s="20" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
     </row>
     <row r="448" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10644,7 +10622,7 @@
         <v>10406</v>
       </c>
       <c r="B448" s="20" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10652,7 +10630,7 @@
         <v>10407</v>
       </c>
       <c r="B449" s="20" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10660,7 +10638,7 @@
         <v>10408</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10668,7 +10646,7 @@
         <v>10409</v>
       </c>
       <c r="B451" s="20" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10676,7 +10654,7 @@
         <v>10410</v>
       </c>
       <c r="B452" s="20" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10684,7 +10662,7 @@
         <v>10411</v>
       </c>
       <c r="B453" s="20" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10692,7 +10670,7 @@
         <v>10412</v>
       </c>
       <c r="B454" s="20" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10700,7 +10678,7 @@
         <v>10413</v>
       </c>
       <c r="B455" s="20" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10708,7 +10686,7 @@
         <v>10414</v>
       </c>
       <c r="B456" s="20" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -10716,7 +10694,7 @@
         <v>10415</v>
       </c>
       <c r="B457" s="20" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10724,7 +10702,7 @@
         <v>10416</v>
       </c>
       <c r="B458" s="20" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10732,7 +10710,7 @@
         <v>10417</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10740,7 +10718,7 @@
         <v>10418</v>
       </c>
       <c r="B460" s="20" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10748,7 +10726,7 @@
         <v>10419</v>
       </c>
       <c r="B461" s="20" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10756,7 +10734,7 @@
         <v>10420</v>
       </c>
       <c r="B462" s="20" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10764,7 +10742,7 @@
         <v>10421</v>
       </c>
       <c r="B463" s="20" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10772,7 +10750,7 @@
         <v>10422</v>
       </c>
       <c r="B464" s="20" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="465" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10780,7 +10758,7 @@
         <v>10423</v>
       </c>
       <c r="B465" s="20" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="466" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10788,7 +10766,7 @@
         <v>10424</v>
       </c>
       <c r="B466" s="20" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="467" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10796,10 +10774,10 @@
         <v>10425</v>
       </c>
       <c r="B467" s="20" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="M467" s="23" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="468" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10807,13 +10785,13 @@
         <v>10426</v>
       </c>
       <c r="B468" s="20" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="L468" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M468" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="469" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10821,13 +10799,13 @@
         <v>10427</v>
       </c>
       <c r="B469" s="20" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="L469" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M469" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="470" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -10835,13 +10813,13 @@
         <v>10428</v>
       </c>
       <c r="B470" s="20" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="L470" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M470" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="471" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -10849,13 +10827,13 @@
         <v>10429</v>
       </c>
       <c r="B471" s="20" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="L471" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M471" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="472" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10863,13 +10841,13 @@
         <v>10430</v>
       </c>
       <c r="B472" s="20" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="L472" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M472" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10877,13 +10855,13 @@
         <v>10431</v>
       </c>
       <c r="B473" s="20" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="L473" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M473" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="474" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10891,13 +10869,13 @@
         <v>10432</v>
       </c>
       <c r="B474" s="20" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="L474" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M474" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="475" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10905,13 +10883,13 @@
         <v>10433</v>
       </c>
       <c r="B475" s="20" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="L475" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M475" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="476" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10919,13 +10897,13 @@
         <v>10434</v>
       </c>
       <c r="B476" s="20" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="L476" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M476" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="477" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10933,13 +10911,13 @@
         <v>10435</v>
       </c>
       <c r="B477" s="20" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="L477" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M477" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10947,13 +10925,13 @@
         <v>10436</v>
       </c>
       <c r="B478" s="20" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="L478" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M478" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="479" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10961,13 +10939,13 @@
         <v>10437</v>
       </c>
       <c r="B479" s="20" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="L479" s="23" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M479" s="23" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="480" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10975,13 +10953,13 @@
         <v>10438</v>
       </c>
       <c r="B480" s="20" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="L480" s="23" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="M480" s="23" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10989,13 +10967,13 @@
         <v>10439</v>
       </c>
       <c r="B481" s="20" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="L481" s="23" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="M481" s="23" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="482" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11003,13 +10981,13 @@
         <v>10440</v>
       </c>
       <c r="B482" s="20" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="L482" s="23" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="M482" s="23" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
     </row>
     <row r="483" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11017,13 +10995,13 @@
         <v>10441</v>
       </c>
       <c r="B483" s="20" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="L483" s="23" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="M483" s="23" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
     </row>
     <row r="484" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11031,13 +11009,13 @@
         <v>10442</v>
       </c>
       <c r="B484" s="20" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="L484" s="23" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="M484" s="23" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="485" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11045,13 +11023,13 @@
         <v>10443</v>
       </c>
       <c r="B485" s="20" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="L485" s="23" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="M485" s="23" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
     </row>
     <row r="486" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11059,10 +11037,10 @@
         <v>10444</v>
       </c>
       <c r="B486" s="20" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="M486" s="23" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
     </row>
     <row r="487" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11070,13 +11048,13 @@
         <v>10445</v>
       </c>
       <c r="B487" s="20" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="L487" s="23" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="M487" s="23" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
     </row>
     <row r="488" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11084,13 +11062,13 @@
         <v>10446</v>
       </c>
       <c r="B488" s="20" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="L488" s="23" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="M488" s="23" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
     </row>
     <row r="489" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11098,10 +11076,10 @@
         <v>10447</v>
       </c>
       <c r="B489" s="20" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="M489" s="23" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="490" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11109,13 +11087,13 @@
         <v>10448</v>
       </c>
       <c r="B490" s="20" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="L490" s="23" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="M490" s="23" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
     </row>
     <row r="491" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11123,13 +11101,13 @@
         <v>10449</v>
       </c>
       <c r="B491" s="20" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="L491" s="23" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="M491" s="23" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
     </row>
     <row r="492" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11137,10 +11115,10 @@
         <v>10450</v>
       </c>
       <c r="B492" s="20" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="L492" s="23" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="493" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11148,10 +11126,10 @@
         <v>10451</v>
       </c>
       <c r="B493" s="20" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="L493" s="23" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="494" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11159,10 +11137,10 @@
         <v>10452</v>
       </c>
       <c r="B494" s="20" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="L494" s="23" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="495" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11170,7 +11148,7 @@
         <v>10453</v>
       </c>
       <c r="B495" s="20" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
     </row>
     <row r="496" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11178,7 +11156,7 @@
         <v>10454</v>
       </c>
       <c r="B496" s="20" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
     </row>
     <row r="497" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11186,7 +11164,7 @@
         <v>10455</v>
       </c>
       <c r="B497" s="20" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
     </row>
     <row r="498" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11194,7 +11172,7 @@
         <v>10456</v>
       </c>
       <c r="B498" s="20" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="499" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11202,10 +11180,10 @@
         <v>10457</v>
       </c>
       <c r="B499" s="20" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="L499" s="23" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
     </row>
     <row r="500" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11213,10 +11191,10 @@
         <v>10458</v>
       </c>
       <c r="B500" s="20" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="L500" s="23" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
     </row>
     <row r="501" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11224,7 +11202,7 @@
         <v>10459</v>
       </c>
       <c r="B501" s="20" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
     </row>
     <row r="502" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11232,7 +11210,7 @@
         <v>10460</v>
       </c>
       <c r="B502" s="20" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
     </row>
     <row r="503" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11240,7 +11218,7 @@
         <v>10461</v>
       </c>
       <c r="B503" s="20" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
     </row>
     <row r="504" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11248,7 +11226,7 @@
         <v>10462</v>
       </c>
       <c r="B504" s="20" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="505" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11256,7 +11234,7 @@
         <v>10463</v>
       </c>
       <c r="B505" s="20" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="506" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11264,7 +11242,7 @@
         <v>10464</v>
       </c>
       <c r="B506" s="20" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="507" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11272,10 +11250,10 @@
         <v>10465</v>
       </c>
       <c r="B507" s="20" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="L507" s="23" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="508" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11283,10 +11261,10 @@
         <v>10466</v>
       </c>
       <c r="B508" s="20" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="L508" s="23" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="509" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11294,10 +11272,10 @@
         <v>10467</v>
       </c>
       <c r="B509" s="20" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="L509" s="23" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="510" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11305,10 +11283,10 @@
         <v>10468</v>
       </c>
       <c r="B510" s="20" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="L510" s="23" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="511" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11316,10 +11294,10 @@
         <v>10469</v>
       </c>
       <c r="B511" s="20" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="L511" s="23" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="512" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11327,10 +11305,10 @@
         <v>10470</v>
       </c>
       <c r="B512" s="20" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="L512" s="23" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="513" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11338,10 +11316,10 @@
         <v>10471</v>
       </c>
       <c r="B513" s="20" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="L513" s="23" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="514" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11349,10 +11327,10 @@
         <v>10472</v>
       </c>
       <c r="B514" s="20" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="L514" s="23" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="515" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11360,7 +11338,7 @@
         <v>10473</v>
       </c>
       <c r="B515" s="20" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
     </row>
     <row r="516" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11368,7 +11346,7 @@
         <v>10474</v>
       </c>
       <c r="B516" s="20" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
     </row>
     <row r="517" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11376,7 +11354,7 @@
         <v>10475</v>
       </c>
       <c r="B517" s="20" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
     </row>
     <row r="518" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11384,7 +11362,7 @@
         <v>10476</v>
       </c>
       <c r="B518" s="20" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
     </row>
     <row r="519" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11392,7 +11370,7 @@
         <v>10477</v>
       </c>
       <c r="B519" s="20" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
     </row>
     <row r="520" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11400,7 +11378,7 @@
         <v>10478</v>
       </c>
       <c r="B520" s="20" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
     </row>
     <row r="521" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11408,7 +11386,7 @@
         <v>10479</v>
       </c>
       <c r="B521" s="20" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
     </row>
     <row r="522" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11416,7 +11394,7 @@
         <v>20480</v>
       </c>
       <c r="B522" s="20" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="523" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11424,7 +11402,7 @@
         <v>20481</v>
       </c>
       <c r="B523" s="20" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
     </row>
     <row r="524" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11432,7 +11410,7 @@
         <v>10480</v>
       </c>
       <c r="B524" s="20" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
     </row>
     <row r="525" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11440,10 +11418,10 @@
         <v>10481</v>
       </c>
       <c r="B525" s="20" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="L525" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="526" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11451,10 +11429,10 @@
         <v>10482</v>
       </c>
       <c r="B526" s="20" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="L526" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="527" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11462,10 +11440,10 @@
         <v>10483</v>
       </c>
       <c r="B527" s="20" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="L527" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="528" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11473,10 +11451,10 @@
         <v>10484</v>
       </c>
       <c r="B528" s="20" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="L528" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="529" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11484,10 +11462,10 @@
         <v>10485</v>
       </c>
       <c r="B529" s="20" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="L529" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="530" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11495,10 +11473,10 @@
         <v>10486</v>
       </c>
       <c r="B530" s="20" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="L530" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="531" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11506,10 +11484,10 @@
         <v>10487</v>
       </c>
       <c r="B531" s="20" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="L531" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="532" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11517,10 +11495,10 @@
         <v>10488</v>
       </c>
       <c r="B532" s="20" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="L532" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="533" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11528,10 +11506,10 @@
         <v>10489</v>
       </c>
       <c r="B533" s="20" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="L533" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="534" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11539,10 +11517,10 @@
         <v>10490</v>
       </c>
       <c r="B534" s="20" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="L534" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="535" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11550,10 +11528,10 @@
         <v>10491</v>
       </c>
       <c r="B535" s="20" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="L535" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="536" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11561,10 +11539,10 @@
         <v>10492</v>
       </c>
       <c r="B536" s="20" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="L536" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="537" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11572,10 +11550,10 @@
         <v>10493</v>
       </c>
       <c r="B537" s="20" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="L537" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="538" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11583,10 +11561,10 @@
         <v>10494</v>
       </c>
       <c r="B538" s="20" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="L538" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="539" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11594,10 +11572,10 @@
         <v>10495</v>
       </c>
       <c r="B539" s="20" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="L539" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="540" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11605,10 +11583,10 @@
         <v>10496</v>
       </c>
       <c r="B540" s="20" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="L540" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="541" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11616,10 +11594,10 @@
         <v>10497</v>
       </c>
       <c r="B541" s="20" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="L541" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="542" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11627,13 +11605,13 @@
         <v>10498</v>
       </c>
       <c r="B542" s="20" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="L542" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="O542" s="25" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
     </row>
     <row r="543" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11641,10 +11619,10 @@
         <v>10499</v>
       </c>
       <c r="B543" s="20" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="L543" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="544" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11652,10 +11630,10 @@
         <v>10500</v>
       </c>
       <c r="B544" s="20" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="L544" s="23" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11663,7 +11641,7 @@
         <v>10501</v>
       </c>
       <c r="B545" s="20" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11671,7 +11649,7 @@
         <v>10502</v>
       </c>
       <c r="B546" s="20" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11679,7 +11657,7 @@
         <v>10503</v>
       </c>
       <c r="B547" s="20" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11687,7 +11665,7 @@
         <v>10504</v>
       </c>
       <c r="B548" s="20" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11695,7 +11673,7 @@
         <v>10505</v>
       </c>
       <c r="B549" s="20" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11763,7 +11741,7 @@
         <v>10518</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11771,7 +11749,7 @@
         <v>10519</v>
       </c>
       <c r="B563" s="20" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11779,7 +11757,7 @@
         <v>10520</v>
       </c>
       <c r="B564" s="20" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11787,7 +11765,7 @@
         <v>10521</v>
       </c>
       <c r="B565" s="20" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11795,7 +11773,7 @@
         <v>10522</v>
       </c>
       <c r="B566" s="20" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11803,7 +11781,7 @@
         <v>10523</v>
       </c>
       <c r="B567" s="20" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11811,7 +11789,7 @@
         <v>10524</v>
       </c>
       <c r="B568" s="20" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11819,7 +11797,7 @@
         <v>10525</v>
       </c>
       <c r="B569" s="20" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11827,7 +11805,7 @@
         <v>10526</v>
       </c>
       <c r="B570" s="24" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11835,7 +11813,7 @@
         <v>10527</v>
       </c>
       <c r="B571" s="24" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11843,7 +11821,7 @@
         <v>10528</v>
       </c>
       <c r="B572" s="24" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11851,7 +11829,7 @@
         <v>10529</v>
       </c>
       <c r="B573" s="24" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11859,7 +11837,7 @@
         <v>10530</v>
       </c>
       <c r="B574" s="24" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11867,7 +11845,7 @@
         <v>10531</v>
       </c>
       <c r="B575" s="24" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11875,7 +11853,7 @@
         <v>10532</v>
       </c>
       <c r="B576" s="20" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11883,7 +11861,7 @@
         <v>10533</v>
       </c>
       <c r="B577" s="20" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11891,7 +11869,7 @@
         <v>10534</v>
       </c>
       <c r="B578" s="20" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11899,7 +11877,7 @@
         <v>10535</v>
       </c>
       <c r="B579" s="20" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11907,7 +11885,7 @@
         <v>10536</v>
       </c>
       <c r="B580" s="20" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11915,7 +11893,7 @@
         <v>10537</v>
       </c>
       <c r="B581" s="20" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11923,7 +11901,7 @@
         <v>10538</v>
       </c>
       <c r="B582" s="20" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11931,7 +11909,7 @@
         <v>10539</v>
       </c>
       <c r="B583" s="20" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11939,7 +11917,7 @@
         <v>10540</v>
       </c>
       <c r="B584" s="20" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11947,7 +11925,7 @@
         <v>10541</v>
       </c>
       <c r="B585" s="20" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11955,7 +11933,7 @@
         <v>10542</v>
       </c>
       <c r="B586" s="20" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11963,7 +11941,7 @@
         <v>10543</v>
       </c>
       <c r="B587" s="20" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11971,7 +11949,7 @@
         <v>10544</v>
       </c>
       <c r="B588" s="20" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11979,7 +11957,7 @@
         <v>10545</v>
       </c>
       <c r="B589" s="20" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11987,7 +11965,7 @@
         <v>10546</v>
       </c>
       <c r="B590" s="20" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11995,7 +11973,7 @@
         <v>10547</v>
       </c>
       <c r="B591" s="54" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12015,7 +11993,7 @@
         <v>10550</v>
       </c>
       <c r="B594" s="54" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12023,7 +12001,7 @@
         <v>10551</v>
       </c>
       <c r="B595" s="54" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12031,7 +12009,7 @@
         <v>10552</v>
       </c>
       <c r="B596" s="54" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12039,7 +12017,7 @@
         <v>10553</v>
       </c>
       <c r="B597" s="43" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12047,7 +12025,7 @@
         <v>10554</v>
       </c>
       <c r="B598" s="43" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12055,7 +12033,7 @@
         <v>10555</v>
       </c>
       <c r="B599" s="43" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12063,7 +12041,7 @@
         <v>10556</v>
       </c>
       <c r="B600" s="43" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12071,7 +12049,7 @@
         <v>10557</v>
       </c>
       <c r="B601" s="43" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12079,7 +12057,7 @@
         <v>10558</v>
       </c>
       <c r="B602" s="43" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12087,7 +12065,7 @@
         <v>10559</v>
       </c>
       <c r="B603" s="20" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12095,7 +12073,7 @@
         <v>10560</v>
       </c>
       <c r="B604" s="20" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12103,7 +12081,7 @@
         <v>10561</v>
       </c>
       <c r="B605" s="20" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12111,7 +12089,7 @@
         <v>10562</v>
       </c>
       <c r="B606" s="20" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12119,7 +12097,7 @@
         <v>10563</v>
       </c>
       <c r="B607" s="20" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12127,7 +12105,7 @@
         <v>10564</v>
       </c>
       <c r="B608" s="20" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
     </row>
     <row r="609" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12135,7 +12113,7 @@
         <v>10565</v>
       </c>
       <c r="B609" s="20" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
     </row>
     <row r="610" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12143,7 +12121,7 @@
         <v>10566</v>
       </c>
       <c r="B610" s="20" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
     </row>
     <row r="611" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12151,7 +12129,7 @@
         <v>10567</v>
       </c>
       <c r="B611" s="20" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="612" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12159,7 +12137,7 @@
         <v>10568</v>
       </c>
       <c r="B612" s="20" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
     </row>
     <row r="613" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12167,7 +12145,7 @@
         <v>10569</v>
       </c>
       <c r="B613" s="20" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
     </row>
     <row r="614" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12175,7 +12153,7 @@
         <v>10570</v>
       </c>
       <c r="B614" s="25" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
     </row>
     <row r="615" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12183,7 +12161,7 @@
         <v>10571</v>
       </c>
       <c r="B615" s="25" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="616" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12191,7 +12169,7 @@
         <v>10572</v>
       </c>
       <c r="B616" s="25" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
     </row>
     <row r="617" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12199,7 +12177,7 @@
         <v>10573</v>
       </c>
       <c r="B617" s="25" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
     </row>
     <row r="618" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12207,7 +12185,7 @@
         <v>10574</v>
       </c>
       <c r="B618" s="25" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="L618" s="56"/>
     </row>
@@ -12216,7 +12194,7 @@
         <v>10575</v>
       </c>
       <c r="B619" s="25" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="L619" s="56"/>
     </row>
@@ -12225,7 +12203,7 @@
         <v>10576</v>
       </c>
       <c r="B620" s="25" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
     </row>
     <row r="621" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12233,7 +12211,7 @@
         <v>10577</v>
       </c>
       <c r="B621" s="25" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
     </row>
     <row r="622" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12241,7 +12219,7 @@
         <v>10578</v>
       </c>
       <c r="B622" s="25" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="623" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12249,7 +12227,7 @@
         <v>10579</v>
       </c>
       <c r="B623" s="25" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
     </row>
     <row r="624" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12257,7 +12235,7 @@
         <v>10580</v>
       </c>
       <c r="B624" s="25" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12265,7 +12243,7 @@
         <v>10581</v>
       </c>
       <c r="B625" s="25" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12273,7 +12251,7 @@
         <v>10582</v>
       </c>
       <c r="B626" s="25" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12281,7 +12259,7 @@
         <v>10583</v>
       </c>
       <c r="B627" s="25" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12289,7 +12267,7 @@
         <v>10584</v>
       </c>
       <c r="B628" s="25" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12297,7 +12275,7 @@
         <v>10585</v>
       </c>
       <c r="B629" s="25" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12305,7 +12283,7 @@
         <v>10586</v>
       </c>
       <c r="B630" s="20" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12313,7 +12291,7 @@
         <v>10587</v>
       </c>
       <c r="B631" s="20" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12321,7 +12299,7 @@
         <v>10588</v>
       </c>
       <c r="B632" s="20" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12329,7 +12307,7 @@
         <v>10589</v>
       </c>
       <c r="B633" s="20" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12337,7 +12315,7 @@
         <v>10590</v>
       </c>
       <c r="B634" s="20" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12345,7 +12323,7 @@
         <v>10591</v>
       </c>
       <c r="B635" s="20" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12353,7 +12331,7 @@
         <v>10592</v>
       </c>
       <c r="B636" s="20" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12361,7 +12339,7 @@
         <v>10593</v>
       </c>
       <c r="B637" s="20" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12369,7 +12347,7 @@
         <v>10594</v>
       </c>
       <c r="B638" s="55" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12377,7 +12355,7 @@
         <v>10595</v>
       </c>
       <c r="B639" s="55" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12385,7 +12363,7 @@
         <v>10596</v>
       </c>
       <c r="B640" s="55" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12393,7 +12371,7 @@
         <v>10597</v>
       </c>
       <c r="B641" s="55" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12401,7 +12379,7 @@
         <v>10598</v>
       </c>
       <c r="B642" s="55" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12409,7 +12387,7 @@
         <v>10599</v>
       </c>
       <c r="B643" s="55" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12417,7 +12395,7 @@
         <v>10600</v>
       </c>
       <c r="B644" s="55" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12425,7 +12403,7 @@
         <v>10601</v>
       </c>
       <c r="B645" s="55" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12433,7 +12411,7 @@
         <v>10602</v>
       </c>
       <c r="B646" s="55" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12441,7 +12419,7 @@
         <v>10603</v>
       </c>
       <c r="B647" s="55" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12449,7 +12427,7 @@
         <v>10604</v>
       </c>
       <c r="B648" s="55" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12457,7 +12435,7 @@
         <v>10605</v>
       </c>
       <c r="B649" s="55" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12465,7 +12443,7 @@
         <v>10606</v>
       </c>
       <c r="B650" s="55" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12473,7 +12451,7 @@
         <v>10607</v>
       </c>
       <c r="B651" s="55" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12481,7 +12459,7 @@
         <v>10608</v>
       </c>
       <c r="B652" s="55" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12489,7 +12467,7 @@
         <v>10609</v>
       </c>
       <c r="B653" s="55" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12497,7 +12475,7 @@
         <v>10610</v>
       </c>
       <c r="B654" s="55" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12505,7 +12483,7 @@
         <v>10611</v>
       </c>
       <c r="B655" s="54" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12513,7 +12491,7 @@
         <v>10612</v>
       </c>
       <c r="B656" s="54" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="657" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12521,7 +12499,7 @@
         <v>10613</v>
       </c>
       <c r="B657" s="54" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="658" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12529,7 +12507,7 @@
         <v>10614</v>
       </c>
       <c r="B658" s="54" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="659" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12537,7 +12515,7 @@
         <v>10615</v>
       </c>
       <c r="B659" s="54" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="660" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12545,7 +12523,7 @@
         <v>10616</v>
       </c>
       <c r="B660" s="54" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="661" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12553,7 +12531,7 @@
         <v>10617</v>
       </c>
       <c r="B661" s="54" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="662" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12561,7 +12539,7 @@
         <v>10618</v>
       </c>
       <c r="B662" s="54" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="L662" s="56"/>
     </row>
@@ -12570,7 +12548,7 @@
         <v>10619</v>
       </c>
       <c r="B663" s="54" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="L663" s="56"/>
     </row>
@@ -12579,7 +12557,7 @@
         <v>10620</v>
       </c>
       <c r="B664" s="54" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="L664" s="56"/>
     </row>
@@ -12588,7 +12566,7 @@
         <v>10621</v>
       </c>
       <c r="B665" s="54" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="666" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12596,7 +12574,7 @@
         <v>10622</v>
       </c>
       <c r="B666" s="54" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="667" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12604,7 +12582,7 @@
         <v>10623</v>
       </c>
       <c r="B667" s="57" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="668" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12612,7 +12590,7 @@
         <v>10624</v>
       </c>
       <c r="B668" s="57" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="669" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12620,7 +12598,7 @@
         <v>10625</v>
       </c>
       <c r="B669" s="57" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="670" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12628,7 +12606,7 @@
         <v>10626</v>
       </c>
       <c r="B670" s="57" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="671" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12636,7 +12614,7 @@
         <v>10627</v>
       </c>
       <c r="B671" s="54" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="672" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12644,7 +12622,7 @@
         <v>10628</v>
       </c>
       <c r="B672" s="54" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12652,7 +12630,7 @@
         <v>10629</v>
       </c>
       <c r="B673" s="54" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12660,7 +12638,7 @@
         <v>10630</v>
       </c>
       <c r="B674" s="54" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12668,7 +12646,7 @@
         <v>10631</v>
       </c>
       <c r="B675" s="57" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12676,7 +12654,7 @@
         <v>10632</v>
       </c>
       <c r="B676" s="54" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12684,7 +12662,7 @@
         <v>10633</v>
       </c>
       <c r="B677" s="54" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12692,7 +12670,7 @@
         <v>10634</v>
       </c>
       <c r="B678" s="54" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12700,7 +12678,7 @@
         <v>10635</v>
       </c>
       <c r="B679" s="54" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12708,7 +12686,7 @@
         <v>10636</v>
       </c>
       <c r="B680" s="54" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\newone\bacon.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F2C963-20CF-4783-A1E4-490C05F6508B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C436B4-26D2-473D-B20F-812B319031EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9825" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4089,7 +4089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A519" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\newone\bacon.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C436B4-26D2-473D-B20F-812B319031EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B379F953-EB64-41B6-8F01-BB43F3335050}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9825" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4089,9 +4089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.375" defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
